--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -72,14 +72,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <color rgb="FF000000"/>
@@ -118,9 +110,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -185,14 +176,11 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -569,22 +557,22 @@
   </sheetPr>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="33.7109375"/>
-    <col customWidth="1" max="2" min="2" width="40"/>
-    <col customWidth="1" max="3" min="3" width="12.140625"/>
-    <col customWidth="1" max="4" min="4" width="13.85546875"/>
-    <col customWidth="1" max="5" min="5" width="57.140625"/>
-    <col customWidth="1" max="6" min="6" width="56.140625"/>
-    <col customWidth="1" max="1025" min="7" width="8.140625"/>
+    <col customWidth="1" max="1" min="1" style="25" width="33.7109375"/>
+    <col customWidth="1" max="2" min="2" style="25" width="40"/>
+    <col customWidth="1" max="3" min="3" style="25" width="12.140625"/>
+    <col customWidth="1" max="4" min="4" style="25" width="13.85546875"/>
+    <col customWidth="1" max="5" min="5" style="25" width="57.140625"/>
+    <col customWidth="1" max="6" min="6" style="25" width="56.140625"/>
+    <col customWidth="1" max="1025" min="7" style="25" width="8.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1">
+    <row customHeight="1" ht="15.75" r="1" s="25">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>field</t>
@@ -617,7 +605,7 @@
       </c>
       <c r="G1" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="31.5" r="2">
+    <row customHeight="1" ht="31.5" r="2" s="25">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>title</t>
@@ -625,7 +613,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Expression Studies of Melanotransferrin in Mouse Brain</t>
+          <t>Transcriptomic and epigenomic dynamics associated with development of human iPSC-derived GABAergic interneurons</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -646,20 +634,17 @@
       </c>
       <c r="G2" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="78.75" r="3">
+    <row customHeight="1" ht="78.75" r="3" s="25">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="B3" s="25" t="inlineStr">
-        <is>
-          <t>Melanotransferrin (MTf) or melanoma tumor antigen p97 is an iron (Fe)-binding transferrin homolog expressed highly on melanomas and at lower levels on normal tissues. It has been suggested that MTf is involved in a variety of processes such as Fe metabolism and cellular differentiation. Considering the crucial role of Fe in many metabolic pathways e.g., DNA synthesis, it is important to understand the function of MTf. To define the roles of MTf, a MTf knockout (MTf -/-) mouse model was developed. Examination of the MTf -/- mice demonstrated no phenotypic differences compared to wild-type littermates. However, microarray analysis showed differential expression of molecules involved in proliferation such as Mef2a, Tcf4, Gls and Apod in MTf -/- mice compared to MTf +/+ littermates, suggesting a role for MTf in proliferation and tumorigenesis.
-Date GSE4523 Last Updated: Jun 13 2006
-Contributors:  Louise L Dunn Yohan Suryo Rahmanto Eric O Sekyere Des R Richardson
-Includes GDS1964.
- Update date: Jun 14 2006.
- Dataset description GDS1964: Analysis of brain from melanotransferrin (MTf) knockout mutants. MTf or melanoma tumor antigen p97 is a membrane bound iron binding transferrin homolog highly expressed in melanomas and at lower levels in normal tissues. Results provide insight into the function of MTf.</t>
+      <c r="B3" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GABAergic interneurons (GINs) are a heterogeneous class of inhibitory neurons that collectively maintain normal neuronal excitability and network activity. Identification of the genetic regulatory elements and transcription factors that contribute toward GIN function may provide new insight into the pathways underlying proper GIN activity, while also indicating potential therapeutic targets for GIN-associated disorders, such as epilepsy and schizophrenia. In this study, we examined temporal changes in gene expression and chromatin accessibility by collecting human iPSC-derived GINs at three time points for transcriptomic and epigenomic analysis: neural progenitor cells at 22 days post-differentiation (D22), then GINs at D50 and D78. Collectively, these data provide a resource for examining the molecular networks regulating normal GIN functionality.
+At time of import, last updated (by provider) on: Aug 21 2020
+Contributors: ; [Andrew Escayg, Christopher D Scharer, Ying Zhou, Zhexing Wen, George Andrew S Inglis, Dillon G Patterson, Yanfei Han, Jeremy M Boss]</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -699,7 +684,7 @@
       <c r="Y3" s="12" t="n"/>
       <c r="Z3" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
+    <row customHeight="1" ht="15.75" r="4" s="25">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>dataset_type</t>
@@ -707,7 +692,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>bulk-rnaseq</t>
+          <t>microarray</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -728,7 +713,7 @@
       </c>
       <c r="G4" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="35.25" r="5">
+    <row customHeight="1" ht="35.25" r="5" s="25">
       <c r="A5" s="15" t="inlineStr">
         <is>
           <t>annotation_source</t>
@@ -757,7 +742,7 @@
       </c>
       <c r="G5" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="6">
+    <row customHeight="1" ht="15.75" r="6" s="25">
       <c r="A6" s="15" t="inlineStr">
         <is>
           <t>annotation_release_number</t>
@@ -782,7 +767,7 @@
       </c>
       <c r="G6" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="78.75" r="7">
+    <row customHeight="1" ht="78.75" r="7" s="25">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>geo_accession</t>
@@ -790,7 +775,7 @@
       </c>
       <c r="B7" s="16" t="inlineStr">
         <is>
-          <t>GSE4523</t>
+          <t>GSE145073</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -808,13 +793,17 @@
       </c>
       <c r="G7" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="8">
+    <row customHeight="1" ht="15.75" r="8" s="25">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>contact_email</t>
         </is>
       </c>
-      <c r="B8" s="24" t="n"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAment@som.umaryland.edu</t>
+        </is>
+      </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -837,13 +826,17 @@
       </c>
       <c r="G8" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="9">
+    <row customHeight="1" ht="33" r="9" s="25">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>contact_institute</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>University of Maryland, Baltimore, School of Medicine</t>
+        </is>
+      </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -866,13 +859,17 @@
       </c>
       <c r="G9" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="31.5" r="10">
+    <row customHeight="1" ht="31.5" r="10" s="25">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>contact_name</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Seth Ament</t>
+        </is>
+      </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -895,7 +892,7 @@
       </c>
       <c r="G10" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="11">
+    <row customHeight="1" ht="15.75" r="11" s="25">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>sample_taxid</t>
@@ -921,7 +918,7 @@
       </c>
       <c r="G11" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="12">
+    <row customHeight="1" ht="15.75" r="12" s="25">
       <c r="A12" s="3" t="inlineStr">
         <is>
           <t>sample_organism</t>
@@ -946,7 +943,7 @@
       </c>
       <c r="G12" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="13">
+    <row customHeight="1" ht="15.75" r="13" s="25">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>platform_id</t>
@@ -971,7 +968,7 @@
       </c>
       <c r="G13" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="14">
+    <row customHeight="1" ht="15.75" r="14" s="25">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t>instrument_model</t>
@@ -996,7 +993,7 @@
       </c>
       <c r="G14" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="15">
+    <row customHeight="1" ht="15.75" r="15" s="25">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t>library_selection</t>
@@ -1021,7 +1018,7 @@
       </c>
       <c r="G15" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="16">
+    <row customHeight="1" ht="15.75" r="16" s="25">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t>library_source</t>
@@ -1042,7 +1039,7 @@
       </c>
       <c r="G16" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="17">
+    <row customHeight="1" ht="15.75" r="17" s="25">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t>library_strategy</t>
@@ -1063,7 +1060,7 @@
       </c>
       <c r="G17" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="18">
+    <row customHeight="1" ht="15.75" r="18" s="25">
       <c r="A18" s="3" t="inlineStr">
         <is>
           <t>pubmed_id</t>
@@ -1108,13 +1105,9 @@
       <c r="G19" s="22" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="3">
     <dataValidation allowBlank="0" operator="greaterThan" prompt="Please select an option from the list" promptTitle="This field is required" showErrorMessage="1" showInputMessage="1" sqref="B5" type="list">
       <formula1>"Genbank,Ensembl"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="0" operator="greaterThan" prompt="Please enter a contact email address" promptTitle="This field is required" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B8" type="textLength">
-      <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="0" operator="greaterThan" prompt="Please enter a contact institute" promptTitle="This field is required" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B9" type="textLength">
@@ -1125,10 +1118,6 @@
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="0" operator="greaterThan" prompt="Please select an option from the list" promptTitle="This field is required" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
-      <formula1>"bulk-rnaseq,single-cell-rnaseq,microarray"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.9840277777777779" footer="0.511805555555555" header="0.511805555555555" left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
